--- a/state_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
+++ b/state_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U179"/>
+  <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04408106181182</v>
+        <v>2.05293321178597</v>
       </c>
       <c r="H2" t="n">
-        <v>8.23747102709763</v>
+        <v>8.391509689396541</v>
       </c>
       <c r="I2" t="n">
-        <v>4.42607</v>
+        <v>4.83163</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>3.76109</v>
+        <v>3.54174</v>
       </c>
       <c r="O2" t="n">
         <v>1838188.844</v>
@@ -1153,7 +1153,7 @@
         <v>0.058</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09197973838038449</v>
+        <v>0.0919787608076357</v>
       </c>
       <c r="H9" t="n">
         <v>0.538119534842997</v>
@@ -1234,7 +1234,7 @@
         <v>0.058</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09197973838038449</v>
+        <v>0.0919787608076357</v>
       </c>
       <c r="H10" t="n">
         <v>0.538119534842997</v>
@@ -1473,7 +1473,7 @@
         <v>0.794</v>
       </c>
       <c r="G13" t="n">
-        <v>0.977322033898305</v>
+        <v>0.977335593220339</v>
       </c>
       <c r="H13" t="n">
         <v>3.538</v>
@@ -1550,7 +1550,7 @@
         <v>0.794</v>
       </c>
       <c r="G14" t="n">
-        <v>0.977322033898305</v>
+        <v>0.977335593220339</v>
       </c>
       <c r="H14" t="n">
         <v>3.538</v>
@@ -1936,16 +1936,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.1671</v>
       </c>
       <c r="G19" t="n">
-        <v>2.17072478741597</v>
+        <v>2.18171760628603</v>
       </c>
       <c r="H19" t="n">
-        <v>8.23747102709763</v>
+        <v>8.391509689396541</v>
       </c>
       <c r="I19" t="n">
-        <v>4.73593</v>
+        <v>5.43646</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>4.01549</v>
+        <v>4.03024</v>
       </c>
       <c r="O19" t="n">
         <v>1838188.844</v>
@@ -2020,7 +2020,7 @@
         <v>0.067</v>
       </c>
       <c r="G20" t="n">
-        <v>0.121892652039365</v>
+        <v>0.12189359127564</v>
       </c>
       <c r="H20" t="n">
         <v>0.657</v>
@@ -2101,7 +2101,7 @@
         <v>0.067</v>
       </c>
       <c r="G21" t="n">
-        <v>0.121892652039365</v>
+        <v>0.12189359127564</v>
       </c>
       <c r="H21" t="n">
         <v>0.657</v>
@@ -2842,7 +2842,7 @@
         <v>0.855</v>
       </c>
       <c r="G30" t="n">
-        <v>0.934237288135593</v>
+        <v>0.934233898305085</v>
       </c>
       <c r="H30" t="n">
         <v>3.538</v>
@@ -2919,7 +2919,7 @@
         <v>0.855</v>
       </c>
       <c r="G31" t="n">
-        <v>0.934237288135593</v>
+        <v>0.934233898305085</v>
       </c>
       <c r="H31" t="n">
         <v>3.538</v>
@@ -3308,7 +3308,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.129282482547839</v>
+        <v>0.129283421784115</v>
       </c>
       <c r="H36" t="n">
         <v>0.657</v>
@@ -3389,7 +3389,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.129282482547839</v>
+        <v>0.129283421784115</v>
       </c>
       <c r="H37" t="n">
         <v>0.657</v>
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.742</v>
+        <v>0.7415</v>
       </c>
       <c r="G46" t="n">
-        <v>0.850932203389831</v>
+        <v>0.850922033898305</v>
       </c>
       <c r="H46" t="n">
         <v>3.538</v>
@@ -4141,7 +4141,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.4775</v>
+        <v>0.4774</v>
       </c>
       <c r="M46" t="n">
         <v>1.26017</v>
@@ -4204,10 +4204,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.742</v>
+        <v>0.7415</v>
       </c>
       <c r="G47" t="n">
-        <v>0.850932203389831</v>
+        <v>0.850922033898305</v>
       </c>
       <c r="H47" t="n">
         <v>3.538</v>
@@ -4218,7 +4218,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.4775</v>
+        <v>0.4774</v>
       </c>
       <c r="M47" t="n">
         <v>1.26017</v>
@@ -4596,7 +4596,7 @@
         <v>0.045</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0962444411720421</v>
+        <v>0.0962453647543793</v>
       </c>
       <c r="H52" t="n">
         <v>0.437</v>
@@ -4677,7 +4677,7 @@
         <v>0.045</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0962444411720421</v>
+        <v>0.0962453647543793</v>
       </c>
       <c r="H53" t="n">
         <v>0.437</v>
@@ -5098,7 +5098,7 @@
         <v>0.02641</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0604554437287235</v>
+        <v>0.0604577126006223</v>
       </c>
       <c r="H58" t="n">
         <v>0.538119534842997</v>
@@ -5179,7 +5179,7 @@
         <v>0.02641</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0604554437287235</v>
+        <v>0.0604577126006223</v>
       </c>
       <c r="H59" t="n">
         <v>0.538119534842997</v>
@@ -5260,7 +5260,7 @@
         <v>0.4975</v>
       </c>
       <c r="G60" t="n">
-        <v>0.541295438681796</v>
+        <v>0.5412534466942031</v>
       </c>
       <c r="H60" t="n">
         <v>1.14</v>
@@ -5341,7 +5341,7 @@
         <v>0.4975</v>
       </c>
       <c r="G61" t="n">
-        <v>0.541295438681796</v>
+        <v>0.5412534466942031</v>
       </c>
       <c r="H61" t="n">
         <v>1.14</v>
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.618</v>
+        <v>0.61815</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6754074158172449</v>
+        <v>0.675400082582705</v>
       </c>
       <c r="H62" t="n">
         <v>2.266</v>
@@ -5429,13 +5429,13 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.1795</v>
+        <v>0.17935</v>
       </c>
       <c r="M62" t="n">
         <v>1.199</v>
       </c>
       <c r="N62" t="n">
-        <v>1.2863</v>
+        <v>1.28609</v>
       </c>
       <c r="O62" t="n">
         <v>1838188.844</v>
@@ -5492,10 +5492,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.618</v>
+        <v>0.61815</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6754074158172449</v>
+        <v>0.675400082582705</v>
       </c>
       <c r="H63" t="n">
         <v>2.266</v>
@@ -5506,13 +5506,13 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.1795</v>
+        <v>0.17935</v>
       </c>
       <c r="M63" t="n">
         <v>1.199</v>
       </c>
       <c r="N63" t="n">
-        <v>1.2863</v>
+        <v>1.28609</v>
       </c>
       <c r="O63" t="n">
         <v>1838188.844</v>
@@ -5884,7 +5884,7 @@
         <v>0.0435</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09551612868355421</v>
+        <v>0.09551797153127491</v>
       </c>
       <c r="H68" t="n">
         <v>0.437</v>
@@ -5965,7 +5965,7 @@
         <v>0.0435</v>
       </c>
       <c r="G69" t="n">
-        <v>0.09551612868355421</v>
+        <v>0.09551797153127491</v>
       </c>
       <c r="H69" t="n">
         <v>0.437</v>
@@ -6386,7 +6386,7 @@
         <v>0.00276</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0308642756925057</v>
+        <v>0.0308810473564387</v>
       </c>
       <c r="H74" t="n">
         <v>0.17119997041963</v>
@@ -6397,7 +6397,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.00145</v>
+        <v>0.00152</v>
       </c>
       <c r="M74" t="n">
         <v>0.08646</v>
@@ -6467,7 +6467,7 @@
         <v>0.00276</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0308642756925057</v>
+        <v>0.0308810473564387</v>
       </c>
       <c r="H75" t="n">
         <v>0.17119997041963</v>
@@ -6478,7 +6478,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.00145</v>
+        <v>0.00152</v>
       </c>
       <c r="M75" t="n">
         <v>0.08646</v>
@@ -6548,7 +6548,7 @@
         <v>0.4425</v>
       </c>
       <c r="G76" t="n">
-        <v>0.463225828785654</v>
+        <v>0.463118161524894</v>
       </c>
       <c r="H76" t="n">
         <v>1.14</v>
@@ -6559,7 +6559,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.03022</v>
+        <v>0.0298</v>
       </c>
       <c r="M76" t="n">
         <v>0.8567399999999999</v>
@@ -6629,7 +6629,7 @@
         <v>0.4425</v>
       </c>
       <c r="G77" t="n">
-        <v>0.463225828785654</v>
+        <v>0.463118161524894</v>
       </c>
       <c r="H77" t="n">
         <v>1.14</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.03022</v>
+        <v>0.0298</v>
       </c>
       <c r="M77" t="n">
         <v>0.8567399999999999</v>
@@ -6706,21 +6706,21 @@
         <v>0.4825</v>
       </c>
       <c r="G78" t="n">
-        <v>0.538443002098562</v>
+        <v>0.53842208698969</v>
       </c>
       <c r="H78" t="n">
         <v>1.44</v>
       </c>
       <c r="I78" t="n">
-        <v>1.2735</v>
+        <v>1.27355</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.043</v>
+        <v>0.04268</v>
       </c>
       <c r="M78" t="n">
-        <v>1.016</v>
+        <v>1.01615</v>
       </c>
       <c r="N78" t="n">
         <v>1.2231</v>
@@ -6783,21 +6783,21 @@
         <v>0.4825</v>
       </c>
       <c r="G79" t="n">
-        <v>0.538443002098562</v>
+        <v>0.53842208698969</v>
       </c>
       <c r="H79" t="n">
         <v>1.44</v>
       </c>
       <c r="I79" t="n">
-        <v>1.2735</v>
+        <v>1.27355</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.043</v>
+        <v>0.04268</v>
       </c>
       <c r="M79" t="n">
-        <v>1.016</v>
+        <v>1.01615</v>
       </c>
       <c r="N79" t="n">
         <v>1.2231</v>
@@ -7172,7 +7172,7 @@
         <v>0.039</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0903827953502209</v>
+        <v>0.0903846381979415</v>
       </c>
       <c r="H84" t="n">
         <v>0.437</v>
@@ -7253,7 +7253,7 @@
         <v>0.039</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0903827953502209</v>
+        <v>0.0903846381979415</v>
       </c>
       <c r="H85" t="n">
         <v>0.437</v>
@@ -7334,7 +7334,7 @@
         <v>950</v>
       </c>
       <c r="G86" t="n">
-        <v>2780.64512042765</v>
+        <v>2772.68130739455</v>
       </c>
       <c r="H86" t="n">
         <v>44000</v>
@@ -7419,7 +7419,7 @@
         <v>950</v>
       </c>
       <c r="G87" t="n">
-        <v>2780.64512042765</v>
+        <v>2772.68130739455</v>
       </c>
       <c r="H87" t="n">
         <v>44000</v>
@@ -7504,7 +7504,7 @@
         <v>950</v>
       </c>
       <c r="G88" t="n">
-        <v>2780.64512042765</v>
+        <v>2772.68130739455</v>
       </c>
       <c r="H88" t="n">
         <v>44000</v>
@@ -7589,7 +7589,7 @@
         <v>950</v>
       </c>
       <c r="G89" t="n">
-        <v>2780.64512042765</v>
+        <v>2772.68130739455</v>
       </c>
       <c r="H89" t="n">
         <v>44000</v>
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.00236</v>
+        <v>0.00248</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0177444749912259</v>
+        <v>0.0177717070586359</v>
       </c>
       <c r="H90" t="n">
         <v>0.17119997041963</v>
@@ -7685,7 +7685,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00145</v>
+        <v>0.00152</v>
       </c>
       <c r="M90" t="n">
         <v>0.0265</v>
@@ -7752,10 +7752,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.00236</v>
+        <v>0.00248</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0177444749912259</v>
+        <v>0.0177717070586359</v>
       </c>
       <c r="H91" t="n">
         <v>0.17119997041963</v>
@@ -7766,7 +7766,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.00145</v>
+        <v>0.00152</v>
       </c>
       <c r="M91" t="n">
         <v>0.0265</v>
@@ -7836,7 +7836,7 @@
         <v>0.37875</v>
       </c>
       <c r="G92" t="n">
-        <v>0.39170946087318</v>
+        <v>0.391547828832853</v>
       </c>
       <c r="H92" t="n">
         <v>1.1071</v>
@@ -7847,7 +7847,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>0.0209</v>
+        <v>0.0197</v>
       </c>
       <c r="M92" t="n">
         <v>0.79631</v>
@@ -7917,7 +7917,7 @@
         <v>0.37875</v>
       </c>
       <c r="G93" t="n">
-        <v>0.39170946087318</v>
+        <v>0.391547828832853</v>
       </c>
       <c r="H93" t="n">
         <v>1.1071</v>
@@ -7928,7 +7928,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.0209</v>
+        <v>0.0197</v>
       </c>
       <c r="M93" t="n">
         <v>0.79631</v>
@@ -7994,24 +7994,24 @@
         <v>0.44</v>
       </c>
       <c r="G94" t="n">
-        <v>0.438926335431896</v>
+        <v>0.438905420323023</v>
       </c>
       <c r="H94" t="n">
         <v>1.374</v>
       </c>
       <c r="I94" t="n">
-        <v>1.2015</v>
+        <v>1.20175</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.03207</v>
+        <v>0.03183</v>
       </c>
       <c r="M94" t="n">
-        <v>0.8672</v>
+        <v>0.8667899999999999</v>
       </c>
       <c r="N94" t="n">
-        <v>1.044</v>
+        <v>1.04408</v>
       </c>
       <c r="O94" t="n">
         <v>1838188.844</v>
@@ -8071,24 +8071,24 @@
         <v>0.44</v>
       </c>
       <c r="G95" t="n">
-        <v>0.438926335431896</v>
+        <v>0.438905420323023</v>
       </c>
       <c r="H95" t="n">
         <v>1.374</v>
       </c>
       <c r="I95" t="n">
-        <v>1.2015</v>
+        <v>1.20175</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.03207</v>
+        <v>0.03183</v>
       </c>
       <c r="M95" t="n">
-        <v>0.8672</v>
+        <v>0.8667899999999999</v>
       </c>
       <c r="N95" t="n">
-        <v>1.044</v>
+        <v>1.04408</v>
       </c>
       <c r="O95" t="n">
         <v>1838188.844</v>
@@ -8460,7 +8460,7 @@
         <v>0.03</v>
       </c>
       <c r="G100" t="n">
-        <v>0.06823835417817881</v>
+        <v>0.0682392734435623</v>
       </c>
       <c r="H100" t="n">
         <v>0.437</v>
@@ -8541,7 +8541,7 @@
         <v>0.03</v>
       </c>
       <c r="G101" t="n">
-        <v>0.06823835417817881</v>
+        <v>0.0682392734435623</v>
       </c>
       <c r="H101" t="n">
         <v>0.437</v>
@@ -8622,7 +8622,7 @@
         <v>1050</v>
       </c>
       <c r="G102" t="n">
-        <v>2836.16178709432</v>
+        <v>2828.19797406121</v>
       </c>
       <c r="H102" t="n">
         <v>44000</v>
@@ -8707,7 +8707,7 @@
         <v>1050</v>
       </c>
       <c r="G103" t="n">
-        <v>2836.16178709432</v>
+        <v>2828.19797406121</v>
       </c>
       <c r="H103" t="n">
         <v>44000</v>
@@ -8792,7 +8792,7 @@
         <v>1050</v>
       </c>
       <c r="G104" t="n">
-        <v>2836.16178709432</v>
+        <v>2828.19797406121</v>
       </c>
       <c r="H104" t="n">
         <v>44000</v>
@@ -8877,7 +8877,7 @@
         <v>1050</v>
       </c>
       <c r="G105" t="n">
-        <v>2836.16178709432</v>
+        <v>2828.19797406121</v>
       </c>
       <c r="H105" t="n">
         <v>44000</v>
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.00242</v>
+        <v>0.00253</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0108288408083831</v>
+        <v>0.0108746250613776</v>
       </c>
       <c r="H106" t="n">
         <v>0.17119997041963</v>
@@ -8973,7 +8973,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.00217</v>
+        <v>0.00224</v>
       </c>
       <c r="M106" t="n">
         <v>0.01422</v>
@@ -9040,10 +9040,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.00242</v>
+        <v>0.00253</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0108288408083831</v>
+        <v>0.0108746250613776</v>
       </c>
       <c r="H107" t="n">
         <v>0.17119997041963</v>
@@ -9054,7 +9054,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00217</v>
+        <v>0.00224</v>
       </c>
       <c r="M107" t="n">
         <v>0.01422</v>
@@ -9124,7 +9124,7 @@
         <v>0.3885</v>
       </c>
       <c r="G108" t="n">
-        <v>0.388617794206514</v>
+        <v>0.388456162166187</v>
       </c>
       <c r="H108" t="n">
         <v>1.67</v>
@@ -9135,7 +9135,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.01832</v>
+        <v>0.01735</v>
       </c>
       <c r="M108" t="n">
         <v>0.70033</v>
@@ -9205,7 +9205,7 @@
         <v>0.3885</v>
       </c>
       <c r="G109" t="n">
-        <v>0.388617794206514</v>
+        <v>0.388456162166187</v>
       </c>
       <c r="H109" t="n">
         <v>1.67</v>
@@ -9216,7 +9216,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.01832</v>
+        <v>0.01735</v>
       </c>
       <c r="M109" t="n">
         <v>0.70033</v>
@@ -9282,13 +9282,13 @@
         <v>0.44</v>
       </c>
       <c r="G110" t="n">
-        <v>0.415626335431896</v>
+        <v>0.415608753656357</v>
       </c>
       <c r="H110" t="n">
         <v>1.72</v>
       </c>
       <c r="I110" t="n">
-        <v>1.022</v>
+        <v>1.02205</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9296,10 +9296,10 @@
         <v>0.025</v>
       </c>
       <c r="M110" t="n">
-        <v>0.8004</v>
+        <v>0.80019</v>
       </c>
       <c r="N110" t="n">
-        <v>0.9751</v>
+        <v>0.97526</v>
       </c>
       <c r="O110" t="n">
         <v>1838188.844</v>
@@ -9359,13 +9359,13 @@
         <v>0.44</v>
       </c>
       <c r="G111" t="n">
-        <v>0.415626335431896</v>
+        <v>0.415608753656357</v>
       </c>
       <c r="H111" t="n">
         <v>1.72</v>
       </c>
       <c r="I111" t="n">
-        <v>1.022</v>
+        <v>1.02205</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -9373,10 +9373,10 @@
         <v>0.025</v>
       </c>
       <c r="M111" t="n">
-        <v>0.8004</v>
+        <v>0.80019</v>
       </c>
       <c r="N111" t="n">
-        <v>0.9751</v>
+        <v>0.97526</v>
       </c>
       <c r="O111" t="n">
         <v>1838188.844</v>
@@ -9748,7 +9748,7 @@
         <v>0.022</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0501050208448455</v>
+        <v>0.0501059401102289</v>
       </c>
       <c r="H116" t="n">
         <v>0.378</v>
@@ -9829,7 +9829,7 @@
         <v>0.022</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0501050208448455</v>
+        <v>0.0501059401102289</v>
       </c>
       <c r="H117" t="n">
         <v>0.378</v>
@@ -9910,13 +9910,13 @@
         <v>1100</v>
       </c>
       <c r="G118" t="n">
-        <v>2942.23312930529</v>
+        <v>3108.03676911179</v>
       </c>
       <c r="H118" t="n">
         <v>44000</v>
       </c>
       <c r="I118" t="n">
-        <v>11071.99388</v>
+        <v>11499.43922</v>
       </c>
       <c r="J118" t="n">
         <v>63.3333333333333</v>
@@ -9995,13 +9995,13 @@
         <v>1100</v>
       </c>
       <c r="G119" t="n">
-        <v>2942.23312930529</v>
+        <v>3108.03676911179</v>
       </c>
       <c r="H119" t="n">
         <v>44000</v>
       </c>
       <c r="I119" t="n">
-        <v>11071.99388</v>
+        <v>11499.43922</v>
       </c>
       <c r="J119" t="n">
         <v>63.3333333333333</v>
@@ -10080,13 +10080,13 @@
         <v>1100</v>
       </c>
       <c r="G120" t="n">
-        <v>2942.23312930529</v>
+        <v>3108.03676911179</v>
       </c>
       <c r="H120" t="n">
         <v>44000</v>
       </c>
       <c r="I120" t="n">
-        <v>11071.99388</v>
+        <v>11499.43922</v>
       </c>
       <c r="J120" t="n">
         <v>63.3333333333333</v>
@@ -10165,13 +10165,13 @@
         <v>1100</v>
       </c>
       <c r="G121" t="n">
-        <v>2942.23312930529</v>
+        <v>3108.03676911179</v>
       </c>
       <c r="H121" t="n">
         <v>44000</v>
       </c>
       <c r="I121" t="n">
-        <v>11071.99388</v>
+        <v>11499.43922</v>
       </c>
       <c r="J121" t="n">
         <v>63.3333333333333</v>
@@ -10247,10 +10247,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.00422</v>
+        <v>0.00429</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0222043391121185</v>
+        <v>0.0222537400934187</v>
       </c>
       <c r="H122" t="n">
         <v>0.513555867226957</v>
@@ -10261,7 +10261,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.00496</v>
+        <v>0.00515</v>
       </c>
       <c r="M122" t="n">
         <v>0.01744</v>
@@ -10328,10 +10328,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00422</v>
+        <v>0.00429</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0222043391121185</v>
+        <v>0.0222537400934187</v>
       </c>
       <c r="H123" t="n">
         <v>0.513555867226957</v>
@@ -10342,7 +10342,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00496</v>
+        <v>0.00515</v>
       </c>
       <c r="M123" t="n">
         <v>0.01744</v>
@@ -10412,7 +10412,7 @@
         <v>0.41</v>
       </c>
       <c r="G124" t="n">
-        <v>0.430433039937245</v>
+        <v>0.43024166774704</v>
       </c>
       <c r="H124" t="n">
         <v>2.54</v>
@@ -10423,7 +10423,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.0209</v>
+        <v>0.0197</v>
       </c>
       <c r="M124" t="n">
         <v>0.8011</v>
@@ -10493,7 +10493,7 @@
         <v>0.41</v>
       </c>
       <c r="G125" t="n">
-        <v>0.430433039937245</v>
+        <v>0.43024166774704</v>
       </c>
       <c r="H125" t="n">
         <v>2.54</v>
@@ -10504,7 +10504,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.0209</v>
+        <v>0.0197</v>
       </c>
       <c r="M125" t="n">
         <v>0.8011</v>
@@ -10570,7 +10570,7 @@
         <v>0.44</v>
       </c>
       <c r="G126" t="n">
-        <v>0.474326335431896</v>
+        <v>0.474315420323023</v>
       </c>
       <c r="H126" t="n">
         <v>3.17</v>
@@ -10581,13 +10581,13 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.02821</v>
+        <v>0.02811</v>
       </c>
       <c r="M126" t="n">
         <v>0.8515</v>
       </c>
       <c r="N126" t="n">
-        <v>0.9977</v>
+        <v>0.99794</v>
       </c>
       <c r="O126" t="n">
         <v>1838188.844</v>
@@ -10647,7 +10647,7 @@
         <v>0.44</v>
       </c>
       <c r="G127" t="n">
-        <v>0.474326335431896</v>
+        <v>0.474315420323023</v>
       </c>
       <c r="H127" t="n">
         <v>3.17</v>
@@ -10658,13 +10658,13 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.02821</v>
+        <v>0.02811</v>
       </c>
       <c r="M127" t="n">
         <v>0.8515</v>
       </c>
       <c r="N127" t="n">
-        <v>0.9977</v>
+        <v>0.99794</v>
       </c>
       <c r="O127" t="n">
         <v>1838188.844</v>
@@ -11036,7 +11036,7 @@
         <v>0.019</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0728356144184869</v>
+        <v>0.0728365492646396</v>
       </c>
       <c r="H132" t="n">
         <v>1.33</v>
@@ -11117,7 +11117,7 @@
         <v>0.019</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0728356144184869</v>
+        <v>0.0728365492646396</v>
       </c>
       <c r="H133" t="n">
         <v>1.33</v>
@@ -11198,13 +11198,13 @@
         <v>910</v>
       </c>
       <c r="G134" t="n">
-        <v>2495.11843658165</v>
+        <v>2663.73230757131</v>
       </c>
       <c r="H134" t="n">
         <v>44000</v>
       </c>
       <c r="I134" t="n">
-        <v>11112.46521</v>
+        <v>11549.4953</v>
       </c>
       <c r="J134" t="n">
         <v>61.0169491525424</v>
@@ -11283,13 +11283,13 @@
         <v>910</v>
       </c>
       <c r="G135" t="n">
-        <v>2495.11843658165</v>
+        <v>2663.73230757131</v>
       </c>
       <c r="H135" t="n">
         <v>44000</v>
       </c>
       <c r="I135" t="n">
-        <v>11112.46521</v>
+        <v>11549.4953</v>
       </c>
       <c r="J135" t="n">
         <v>61.0169491525424</v>
@@ -11368,13 +11368,13 @@
         <v>910</v>
       </c>
       <c r="G136" t="n">
-        <v>2495.11843658165</v>
+        <v>2663.73230757131</v>
       </c>
       <c r="H136" t="n">
         <v>44000</v>
       </c>
       <c r="I136" t="n">
-        <v>11112.46521</v>
+        <v>11549.4953</v>
       </c>
       <c r="J136" t="n">
         <v>61.0169491525424</v>
@@ -11453,13 +11453,13 @@
         <v>910</v>
       </c>
       <c r="G137" t="n">
-        <v>2495.11843658165</v>
+        <v>2663.73230757131</v>
       </c>
       <c r="H137" t="n">
         <v>44000</v>
       </c>
       <c r="I137" t="n">
-        <v>11112.46521</v>
+        <v>11549.4953</v>
       </c>
       <c r="J137" t="n">
         <v>61.0169491525424</v>
@@ -11535,10 +11535,10 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.00512</v>
+        <v>0.00522</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0244121497967162</v>
+        <v>0.0244628086307118</v>
       </c>
       <c r="H138" t="n">
         <v>0.513555867226957</v>
@@ -11549,7 +11549,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.00512</v>
+        <v>0.00522</v>
       </c>
       <c r="M138" t="n">
         <v>0.01695</v>
@@ -11616,10 +11616,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.00512</v>
+        <v>0.00522</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0244121497967162</v>
+        <v>0.0244628086307118</v>
       </c>
       <c r="H139" t="n">
         <v>0.513555867226957</v>
@@ -11630,7 +11630,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00512</v>
+        <v>0.00522</v>
       </c>
       <c r="M139" t="n">
         <v>0.01695</v>
@@ -11700,7 +11700,7 @@
         <v>0.394</v>
       </c>
       <c r="G140" t="n">
-        <v>0.57532702341717</v>
+        <v>0.575109333408076</v>
       </c>
       <c r="H140" t="n">
         <v>8.33</v>
@@ -11711,7 +11711,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.02503</v>
+        <v>0.02335</v>
       </c>
       <c r="M140" t="n">
         <v>0.80569</v>
@@ -11781,7 +11781,7 @@
         <v>0.394</v>
       </c>
       <c r="G141" t="n">
-        <v>0.57532702341717</v>
+        <v>0.575109333408076</v>
       </c>
       <c r="H141" t="n">
         <v>8.33</v>
@@ -11792,7 +11792,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.02503</v>
+        <v>0.02335</v>
       </c>
       <c r="M141" t="n">
         <v>0.80569</v>
@@ -11858,7 +11858,7 @@
         <v>0.45</v>
       </c>
       <c r="G142" t="n">
-        <v>0.620815850455577</v>
+        <v>0.620802038379985</v>
       </c>
       <c r="H142" t="n">
         <v>8.564</v>
@@ -11869,7 +11869,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.02821</v>
+        <v>0.02811</v>
       </c>
       <c r="M142" t="n">
         <v>0.8523500000000001</v>
@@ -11935,7 +11935,7 @@
         <v>0.45</v>
       </c>
       <c r="G143" t="n">
-        <v>0.620815850455577</v>
+        <v>0.620802038379985</v>
       </c>
       <c r="H143" t="n">
         <v>8.564</v>
@@ -11946,7 +11946,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.02821</v>
+        <v>0.02811</v>
       </c>
       <c r="M143" t="n">
         <v>0.8523500000000001</v>
@@ -12486,13 +12486,13 @@
         <v>880</v>
       </c>
       <c r="G150" t="n">
-        <v>2425.4574196325</v>
+        <v>2594.07129062216</v>
       </c>
       <c r="H150" t="n">
         <v>44000</v>
       </c>
       <c r="I150" t="n">
-        <v>11112.46521</v>
+        <v>11549.4953</v>
       </c>
       <c r="J150" t="n">
         <v>61.0169491525424</v>
@@ -12571,13 +12571,13 @@
         <v>880</v>
       </c>
       <c r="G151" t="n">
-        <v>2425.4574196325</v>
+        <v>2594.07129062216</v>
       </c>
       <c r="H151" t="n">
         <v>44000</v>
       </c>
       <c r="I151" t="n">
-        <v>11112.46521</v>
+        <v>11549.4953</v>
       </c>
       <c r="J151" t="n">
         <v>61.0169491525424</v>
@@ -12656,13 +12656,13 @@
         <v>880</v>
       </c>
       <c r="G152" t="n">
-        <v>2425.4574196325</v>
+        <v>2594.07129062216</v>
       </c>
       <c r="H152" t="n">
         <v>44000</v>
       </c>
       <c r="I152" t="n">
-        <v>11112.46521</v>
+        <v>11549.4953</v>
       </c>
       <c r="J152" t="n">
         <v>61.0169491525424</v>
@@ -12741,13 +12741,13 @@
         <v>880</v>
       </c>
       <c r="G153" t="n">
-        <v>2425.4574196325</v>
+        <v>2594.07129062216</v>
       </c>
       <c r="H153" t="n">
         <v>44000</v>
       </c>
       <c r="I153" t="n">
-        <v>11112.46521</v>
+        <v>11549.4953</v>
       </c>
       <c r="J153" t="n">
         <v>61.0169491525424</v>
@@ -12826,7 +12826,7 @@
         <v>0.00527</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0247102805371832</v>
+        <v>0.0247442524150218</v>
       </c>
       <c r="H154" t="n">
         <v>0.513555867226957</v>
@@ -12907,7 +12907,7 @@
         <v>0.00527</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0247102805371832</v>
+        <v>0.0247442524150218</v>
       </c>
       <c r="H155" t="n">
         <v>0.513555867226957</v>
@@ -12988,7 +12988,7 @@
         <v>0.384</v>
       </c>
       <c r="G156" t="n">
-        <v>0.585286346775418</v>
+        <v>0.585062927843683</v>
       </c>
       <c r="H156" t="n">
         <v>8.33</v>
@@ -12999,7 +12999,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.03119</v>
+        <v>0.02915</v>
       </c>
       <c r="M156" t="n">
         <v>0.80569</v>
@@ -13069,7 +13069,7 @@
         <v>0.384</v>
       </c>
       <c r="G157" t="n">
-        <v>0.585286346775418</v>
+        <v>0.585062927843683</v>
       </c>
       <c r="H157" t="n">
         <v>8.33</v>
@@ -13080,7 +13080,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.03119</v>
+        <v>0.02915</v>
       </c>
       <c r="M157" t="n">
         <v>0.80569</v>
@@ -13146,7 +13146,7 @@
         <v>0.41</v>
       </c>
       <c r="G158" t="n">
-        <v>0.629210301259407</v>
+        <v>0.629190202952256</v>
       </c>
       <c r="H158" t="n">
         <v>8.564</v>
@@ -13223,7 +13223,7 @@
         <v>0.41</v>
       </c>
       <c r="G159" t="n">
-        <v>0.629210301259407</v>
+        <v>0.629190202952256</v>
       </c>
       <c r="H159" t="n">
         <v>8.564</v>
@@ -13774,10 +13774,10 @@
         <v>600</v>
       </c>
       <c r="G166" t="n">
-        <v>1351.61492428235</v>
+        <v>1528.32758818703</v>
       </c>
       <c r="H166" t="n">
-        <v>12000</v>
+        <v>21093.3277030347</v>
       </c>
       <c r="I166" t="n">
         <v>4899.9</v>
@@ -13859,10 +13859,10 @@
         <v>600</v>
       </c>
       <c r="G167" t="n">
-        <v>1351.61492428235</v>
+        <v>1528.32758818703</v>
       </c>
       <c r="H167" t="n">
-        <v>12000</v>
+        <v>21093.3277030347</v>
       </c>
       <c r="I167" t="n">
         <v>4899.9</v>
@@ -13944,10 +13944,10 @@
         <v>600</v>
       </c>
       <c r="G168" t="n">
-        <v>1351.61492428235</v>
+        <v>1528.32758818703</v>
       </c>
       <c r="H168" t="n">
-        <v>12000</v>
+        <v>21093.3277030347</v>
       </c>
       <c r="I168" t="n">
         <v>4899.9</v>
@@ -14029,10 +14029,10 @@
         <v>600</v>
       </c>
       <c r="G169" t="n">
-        <v>1351.61492428235</v>
+        <v>1528.32758818703</v>
       </c>
       <c r="H169" t="n">
-        <v>12000</v>
+        <v>21093.3277030347</v>
       </c>
       <c r="I169" t="n">
         <v>4899.9</v>
@@ -14114,7 +14114,7 @@
         <v>0.00575</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0233034453659058</v>
+        <v>0.0233255487090302</v>
       </c>
       <c r="H170" t="n">
         <v>0.513555867226957</v>
@@ -14195,7 +14195,7 @@
         <v>0.00575</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0233034453659058</v>
+        <v>0.0233255487090302</v>
       </c>
       <c r="H171" t="n">
         <v>0.513555867226957</v>
@@ -14276,7 +14276,7 @@
         <v>0.407</v>
       </c>
       <c r="G172" t="n">
-        <v>0.633777568381322</v>
+        <v>0.633609028886437</v>
       </c>
       <c r="H172" t="n">
         <v>8.33</v>
@@ -14357,7 +14357,7 @@
         <v>0.407</v>
       </c>
       <c r="G173" t="n">
-        <v>0.633777568381322</v>
+        <v>0.633609028886437</v>
       </c>
       <c r="H173" t="n">
         <v>8.33</v>
@@ -14434,7 +14434,7 @@
         <v>0.417</v>
       </c>
       <c r="G174" t="n">
-        <v>0.6765323351577121</v>
+        <v>0.6765122368505611</v>
       </c>
       <c r="H174" t="n">
         <v>8.564</v>
@@ -14511,7 +14511,7 @@
         <v>0.417</v>
       </c>
       <c r="G175" t="n">
-        <v>0.6765323351577121</v>
+        <v>0.6765122368505611</v>
       </c>
       <c r="H175" t="n">
         <v>8.564</v>
@@ -14870,6 +14870,1294 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.109271186440678</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.2761</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.04741</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.12184</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.109271186440678</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.2761</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.04741</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.12184</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>600</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2070.02250344127</v>
+      </c>
+      <c r="H182" t="n">
+        <v>38730</v>
+      </c>
+      <c r="I182" t="n">
+        <v>9165</v>
+      </c>
+      <c r="J182" t="n">
+        <v>52.5423728813559</v>
+      </c>
+      <c r="K182" t="n">
+        <v>71.1864406779661</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1109</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1914.5</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3917.16</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>600</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2070.02250344127</v>
+      </c>
+      <c r="H183" t="n">
+        <v>38730</v>
+      </c>
+      <c r="I183" t="n">
+        <v>9165</v>
+      </c>
+      <c r="J183" t="n">
+        <v>52.5423728813559</v>
+      </c>
+      <c r="K183" t="n">
+        <v>71.1864406779661</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1109</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1914.5</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3917.16</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P183" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>600</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2070.02250344127</v>
+      </c>
+      <c r="H184" t="n">
+        <v>38730</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9165</v>
+      </c>
+      <c r="J184" t="n">
+        <v>52.5423728813559</v>
+      </c>
+      <c r="K184" t="n">
+        <v>71.1864406779661</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1109</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1914.5</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3917.16</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P184" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>600</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2070.02250344127</v>
+      </c>
+      <c r="H185" t="n">
+        <v>38730</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9165</v>
+      </c>
+      <c r="J185" t="n">
+        <v>52.5423728813559</v>
+      </c>
+      <c r="K185" t="n">
+        <v>71.1864406779661</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1109</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1914.5</v>
+      </c>
+      <c r="N185" t="n">
+        <v>3917.16</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P185" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.00622</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0303420919834118</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.513555867226957</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.20363</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0.008109999999999999</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.01964</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.07685</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P186" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.00622</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0303420919834118</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.513555867226957</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.20363</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>0.008109999999999999</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.01964</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.07685</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P187" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.58820224922542</v>
+      </c>
+      <c r="H188" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.5205</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.89457</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1.0812</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.58820224922542</v>
+      </c>
+      <c r="H189" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.5205</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.89457</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1.0812</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.647139355494628</v>
+      </c>
+      <c r="H190" t="n">
+        <v>8.564</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.83345</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.91633</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1.56132</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.647139355494628</v>
+      </c>
+      <c r="H191" t="n">
+        <v>8.564</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1.83345</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.91633</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1.56132</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.02525423728814</v>
+      </c>
+      <c r="H192" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="I192" t="n">
+        <v>2.3535</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2.1226</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.02525423728814</v>
+      </c>
+      <c r="H193" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2.3535</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2.1226</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.157525423728814</v>
+      </c>
+      <c r="H194" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.36275</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.13539</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oroua tributary at d/s Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.157525423728814</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.36275</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.13539</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1838188.844</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5561408.891</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
+++ b/state_results/Rivers/OrouatributaryatdsKimboltonSTP_ba47b36f2d.xlsx
@@ -567,27 +567,27 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.05827</v>
       </c>
       <c r="G2" t="n">
-        <v>2.05293321178597</v>
+        <v>2.08870528175506</v>
       </c>
       <c r="H2" t="n">
-        <v>8.391509689396541</v>
+        <v>9.910392245357579</v>
       </c>
       <c r="I2" t="n">
-        <v>4.83163</v>
+        <v>3.96849</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.31604</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>3.54174</v>
+        <v>3.69298</v>
       </c>
       <c r="O2" t="n">
         <v>1838188.844</v>
@@ -1936,16 +1936,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1671</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18171760628603</v>
+        <v>2.2573850975742</v>
       </c>
       <c r="H19" t="n">
-        <v>8.391509689396541</v>
+        <v>9.910392245357579</v>
       </c>
       <c r="I19" t="n">
-        <v>5.43646</v>
+        <v>3.9965</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1953,10 +1953,10 @@
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>3.07514</v>
       </c>
       <c r="N19" t="n">
-        <v>4.03024</v>
+        <v>3.93137</v>
       </c>
       <c r="O19" t="n">
         <v>1838188.844</v>
@@ -7334,7 +7334,7 @@
         <v>950</v>
       </c>
       <c r="G86" t="n">
-        <v>2772.68130739455</v>
+        <v>2855.20587840362</v>
       </c>
       <c r="H86" t="n">
         <v>44000</v>
@@ -7419,7 +7419,7 @@
         <v>950</v>
       </c>
       <c r="G87" t="n">
-        <v>2772.68130739455</v>
+        <v>2855.20587840362</v>
       </c>
       <c r="H87" t="n">
         <v>44000</v>
@@ -7504,7 +7504,7 @@
         <v>950</v>
       </c>
       <c r="G88" t="n">
-        <v>2772.68130739455</v>
+        <v>2855.20587840362</v>
       </c>
       <c r="H88" t="n">
         <v>44000</v>
@@ -7589,7 +7589,7 @@
         <v>950</v>
       </c>
       <c r="G89" t="n">
-        <v>2772.68130739455</v>
+        <v>2855.20587840362</v>
       </c>
       <c r="H89" t="n">
         <v>44000</v>
@@ -8622,7 +8622,7 @@
         <v>1050</v>
       </c>
       <c r="G102" t="n">
-        <v>2828.19797406121</v>
+        <v>2910.72254507029</v>
       </c>
       <c r="H102" t="n">
         <v>44000</v>
@@ -8707,7 +8707,7 @@
         <v>1050</v>
       </c>
       <c r="G103" t="n">
-        <v>2828.19797406121</v>
+        <v>2910.72254507029</v>
       </c>
       <c r="H103" t="n">
         <v>44000</v>
@@ -8792,7 +8792,7 @@
         <v>1050</v>
       </c>
       <c r="G104" t="n">
-        <v>2828.19797406121</v>
+        <v>2910.72254507029</v>
       </c>
       <c r="H104" t="n">
         <v>44000</v>
@@ -8877,7 +8877,7 @@
         <v>1050</v>
       </c>
       <c r="G105" t="n">
-        <v>2828.19797406121</v>
+        <v>2910.72254507029</v>
       </c>
       <c r="H105" t="n">
         <v>44000</v>
@@ -9910,13 +9910,13 @@
         <v>1100</v>
       </c>
       <c r="G118" t="n">
-        <v>3108.03676911179</v>
+        <v>3031.19920903281</v>
       </c>
       <c r="H118" t="n">
         <v>44000</v>
       </c>
       <c r="I118" t="n">
-        <v>11499.43922</v>
+        <v>11765.79992</v>
       </c>
       <c r="J118" t="n">
         <v>63.3333333333333</v>
@@ -9995,13 +9995,13 @@
         <v>1100</v>
       </c>
       <c r="G119" t="n">
-        <v>3108.03676911179</v>
+        <v>3031.19920903281</v>
       </c>
       <c r="H119" t="n">
         <v>44000</v>
       </c>
       <c r="I119" t="n">
-        <v>11499.43922</v>
+        <v>11765.79992</v>
       </c>
       <c r="J119" t="n">
         <v>63.3333333333333</v>
@@ -10080,13 +10080,13 @@
         <v>1100</v>
       </c>
       <c r="G120" t="n">
-        <v>3108.03676911179</v>
+        <v>3031.19920903281</v>
       </c>
       <c r="H120" t="n">
         <v>44000</v>
       </c>
       <c r="I120" t="n">
-        <v>11499.43922</v>
+        <v>11765.79992</v>
       </c>
       <c r="J120" t="n">
         <v>63.3333333333333</v>
@@ -10165,13 +10165,13 @@
         <v>1100</v>
       </c>
       <c r="G121" t="n">
-        <v>3108.03676911179</v>
+        <v>3031.19920903281</v>
       </c>
       <c r="H121" t="n">
         <v>44000</v>
       </c>
       <c r="I121" t="n">
-        <v>11499.43922</v>
+        <v>11765.79992</v>
       </c>
       <c r="J121" t="n">
         <v>63.3333333333333</v>
@@ -11198,13 +11198,13 @@
         <v>910</v>
       </c>
       <c r="G134" t="n">
-        <v>2663.73230757131</v>
+        <v>2585.59241596557</v>
       </c>
       <c r="H134" t="n">
         <v>44000</v>
       </c>
       <c r="I134" t="n">
-        <v>11549.4953</v>
+        <v>11789.21993</v>
       </c>
       <c r="J134" t="n">
         <v>61.0169491525424</v>
@@ -11283,13 +11283,13 @@
         <v>910</v>
       </c>
       <c r="G135" t="n">
-        <v>2663.73230757131</v>
+        <v>2585.59241596557</v>
       </c>
       <c r="H135" t="n">
         <v>44000</v>
       </c>
       <c r="I135" t="n">
-        <v>11549.4953</v>
+        <v>11789.21993</v>
       </c>
       <c r="J135" t="n">
         <v>61.0169491525424</v>
@@ -11368,13 +11368,13 @@
         <v>910</v>
       </c>
       <c r="G136" t="n">
-        <v>2663.73230757131</v>
+        <v>2585.59241596557</v>
       </c>
       <c r="H136" t="n">
         <v>44000</v>
       </c>
       <c r="I136" t="n">
-        <v>11549.4953</v>
+        <v>11789.21993</v>
       </c>
       <c r="J136" t="n">
         <v>61.0169491525424</v>
@@ -11453,13 +11453,13 @@
         <v>910</v>
       </c>
       <c r="G137" t="n">
-        <v>2663.73230757131</v>
+        <v>2585.59241596557</v>
       </c>
       <c r="H137" t="n">
         <v>44000</v>
       </c>
       <c r="I137" t="n">
-        <v>11549.4953</v>
+        <v>11789.21993</v>
       </c>
       <c r="J137" t="n">
         <v>61.0169491525424</v>
@@ -12486,13 +12486,13 @@
         <v>880</v>
       </c>
       <c r="G150" t="n">
-        <v>2594.07129062216</v>
+        <v>2515.93139901642</v>
       </c>
       <c r="H150" t="n">
         <v>44000</v>
       </c>
       <c r="I150" t="n">
-        <v>11549.4953</v>
+        <v>11789.21993</v>
       </c>
       <c r="J150" t="n">
         <v>61.0169491525424</v>
@@ -12571,13 +12571,13 @@
         <v>880</v>
       </c>
       <c r="G151" t="n">
-        <v>2594.07129062216</v>
+        <v>2515.93139901642</v>
       </c>
       <c r="H151" t="n">
         <v>44000</v>
       </c>
       <c r="I151" t="n">
-        <v>11549.4953</v>
+        <v>11789.21993</v>
       </c>
       <c r="J151" t="n">
         <v>61.0169491525424</v>
@@ -12656,13 +12656,13 @@
         <v>880</v>
       </c>
       <c r="G152" t="n">
-        <v>2594.07129062216</v>
+        <v>2515.93139901642</v>
       </c>
       <c r="H152" t="n">
         <v>44000</v>
       </c>
       <c r="I152" t="n">
-        <v>11549.4953</v>
+        <v>11789.21993</v>
       </c>
       <c r="J152" t="n">
         <v>61.0169491525424</v>
@@ -12741,13 +12741,13 @@
         <v>880</v>
       </c>
       <c r="G153" t="n">
-        <v>2594.07129062216</v>
+        <v>2515.93139901642</v>
       </c>
       <c r="H153" t="n">
         <v>44000</v>
       </c>
       <c r="I153" t="n">
-        <v>11549.4953</v>
+        <v>11789.21993</v>
       </c>
       <c r="J153" t="n">
         <v>61.0169491525424</v>
@@ -13774,10 +13774,10 @@
         <v>600</v>
       </c>
       <c r="G166" t="n">
-        <v>1528.32758818703</v>
+        <v>1366.26440402968</v>
       </c>
       <c r="H166" t="n">
-        <v>21093.3277030347</v>
+        <v>12000</v>
       </c>
       <c r="I166" t="n">
         <v>4899.9</v>
@@ -13859,10 +13859,10 @@
         <v>600</v>
       </c>
       <c r="G167" t="n">
-        <v>1528.32758818703</v>
+        <v>1366.26440402968</v>
       </c>
       <c r="H167" t="n">
-        <v>21093.3277030347</v>
+        <v>12000</v>
       </c>
       <c r="I167" t="n">
         <v>4899.9</v>
@@ -13944,10 +13944,10 @@
         <v>600</v>
       </c>
       <c r="G168" t="n">
-        <v>1528.32758818703</v>
+        <v>1366.26440402968</v>
       </c>
       <c r="H168" t="n">
-        <v>21093.3277030347</v>
+        <v>12000</v>
       </c>
       <c r="I168" t="n">
         <v>4899.9</v>
@@ -14029,10 +14029,10 @@
         <v>600</v>
       </c>
       <c r="G169" t="n">
-        <v>1528.32758818703</v>
+        <v>1366.26440402968</v>
       </c>
       <c r="H169" t="n">
-        <v>21093.3277030347</v>
+        <v>12000</v>
       </c>
       <c r="I169" t="n">
         <v>4899.9</v>
@@ -15062,13 +15062,13 @@
         <v>600</v>
       </c>
       <c r="G182" t="n">
-        <v>2070.02250344127</v>
+        <v>1907.95931928392</v>
       </c>
       <c r="H182" t="n">
         <v>38730</v>
       </c>
       <c r="I182" t="n">
-        <v>9165</v>
+        <v>8907.37991</v>
       </c>
       <c r="J182" t="n">
         <v>52.5423728813559</v>
@@ -15147,13 +15147,13 @@
         <v>600</v>
       </c>
       <c r="G183" t="n">
-        <v>2070.02250344127</v>
+        <v>1907.95931928392</v>
       </c>
       <c r="H183" t="n">
         <v>38730</v>
       </c>
       <c r="I183" t="n">
-        <v>9165</v>
+        <v>8907.37991</v>
       </c>
       <c r="J183" t="n">
         <v>52.5423728813559</v>
@@ -15232,13 +15232,13 @@
         <v>600</v>
       </c>
       <c r="G184" t="n">
-        <v>2070.02250344127</v>
+        <v>1907.95931928392</v>
       </c>
       <c r="H184" t="n">
         <v>38730</v>
       </c>
       <c r="I184" t="n">
-        <v>9165</v>
+        <v>8907.37991</v>
       </c>
       <c r="J184" t="n">
         <v>52.5423728813559</v>
@@ -15317,13 +15317,13 @@
         <v>600</v>
       </c>
       <c r="G185" t="n">
-        <v>2070.02250344127</v>
+        <v>1907.95931928392</v>
       </c>
       <c r="H185" t="n">
         <v>38730</v>
       </c>
       <c r="I185" t="n">
-        <v>9165</v>
+        <v>8907.37991</v>
       </c>
       <c r="J185" t="n">
         <v>52.5423728813559</v>
